--- a/data/trans_dic/P23_10_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_10_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida</t>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>5,44%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>5,18%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,52%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>5,32%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,78</t>
+          <t>2,06; 9,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,8</t>
+          <t>1,86; 8,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,11</t>
+          <t>1,8; 11,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,37</t>
+          <t>1,06; 9,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,43</t>
+          <t>1,91; 11,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,76</t>
+          <t>2,47; 15,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,62</t>
+          <t>3,41; 11,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,38</t>
+          <t>0,44; 4,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,75</t>
+          <t>2,74; 10,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,36</t>
+          <t>1,5; 11,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,36</t>
+          <t>1,77; 10,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,73</t>
+          <t>0,0; 5,57</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 8,74</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 5,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 8,13</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 7,72</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 8,98</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 8,64</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,03%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>3,3%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>2,56%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>4,36%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,34</t>
+          <t>1,1; 6,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 14,83</t>
+          <t>2,07; 16,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,48</t>
+          <t>2,3; 8,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,9</t>
+          <t>0,77; 5,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,83</t>
+          <t>2,56; 11,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,63</t>
+          <t>7,02; 21,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,87</t>
+          <t>2,06; 8,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,29</t>
+          <t>1,3; 6,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,8</t>
+          <t>1,19; 8,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,67</t>
+          <t>1,55; 7,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,41</t>
+          <t>0,98; 5,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,41</t>
+          <t>3,12; 11,27</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 6,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 11,47</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 6,99</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 5,23</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 7,59</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 14,19</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>9,08%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,99%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 26,99</t>
+          <t>7,31; 20,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,08</t>
+          <t>3,65; 14,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,68</t>
+          <t>4,43; 11,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 9,4</t>
+          <t>3,03; 9,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,87</t>
+          <t>3,18; 10,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,78</t>
+          <t>8,2; 18,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,89</t>
+          <t>2,34; 7,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,37</t>
+          <t>1,98; 6,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,57</t>
+          <t>1,38; 4,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,88</t>
+          <t>3,38; 8,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,87</t>
+          <t>5,45; 13,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,93</t>
+          <t>6,09; 14,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 11,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 9,2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 6,71</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 7,64</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 10,19</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 14,96</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>7,13%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,49%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,18%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>12,35%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>11,9%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,74</t>
+          <t>4,86; 11,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,11</t>
+          <t>5,38; 11,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,26</t>
+          <t>5,12; 11,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 16,99</t>
+          <t>4,85; 17,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 14,04</t>
+          <t>7,25; 16,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,51</t>
+          <t>10,9; 22,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 11,21</t>
+          <t>7,59; 14,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,54</t>
+          <t>4,91; 10,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,44</t>
+          <t>5,56; 11,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,94</t>
+          <t>5,41; 11,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,99</t>
+          <t>8,44; 16,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 15,38</t>
+          <t>8,39; 16,6</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 11,42</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 9,77</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 10,18</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 13,29</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 15,29</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 17,28</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>13,2%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,52%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>9,89%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>11,47%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 14,79</t>
+          <t>4,95; 14,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,52</t>
+          <t>2,52; 7,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,47</t>
+          <t>4,0; 9,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 19,42</t>
+          <t>4,5; 12,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 15,37</t>
+          <t>8,87; 19,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,38</t>
+          <t>11,09; 22,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,07</t>
+          <t>5,68; 14,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,67</t>
+          <t>5,25; 12,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,89</t>
+          <t>3,86; 10,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,95</t>
+          <t>5,95; 15,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,85</t>
+          <t>6,36; 14,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,48; 14,94</t>
+          <t>11,99; 22,81</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 12,89</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 8,79</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 8,93</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 12,13</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 15,21</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>12,6; 20,61</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>11,91%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>14,48%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>13,41%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 9,7</t>
+          <t>2,32; 9,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 16,01</t>
+          <t>5,97; 16,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,55</t>
+          <t>5,05; 14,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,44</t>
+          <t>4,94; 15,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,8</t>
+          <t>7,06; 18,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,12</t>
+          <t>5,64; 15,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,21</t>
+          <t>5,44; 16,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 24,21</t>
+          <t>2,54; 8,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,99</t>
+          <t>1,15; 6,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 10,41</t>
+          <t>6,67; 17,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,57</t>
+          <t>8,45; 24,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,62</t>
+          <t>10,33; 22,85</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 11,84</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 9,96</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 8,19</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 14,44</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 19,23</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 17,89</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>8,87%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>9,36%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>9,12%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,39</t>
+          <t>5,39; 8,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,53</t>
+          <t>5,15; 8,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,03</t>
+          <t>5,36; 8,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,98</t>
+          <t>4,79; 8,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,17</t>
+          <t>7,21; 11,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,86</t>
+          <t>10,41; 14,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,87</t>
+          <t>6,04; 9,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 11,49</t>
+          <t>3,83; 5,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,97</t>
+          <t>3,65; 5,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,64</t>
+          <t>5,82; 9,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,59</t>
+          <t>7,56; 11,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 10,48</t>
+          <t>8,95; 12,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 8,65</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 7,01</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 6,6</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 8,05</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 10,52</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 13,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22357</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21573</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24792</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16179</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30282</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8125</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27068</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19019</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>52639</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>29698</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>51860</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>35197</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10365; 46459</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9730; 45150</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9207; 57522</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4920; 46195</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>802; 4720</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1071; 6616</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15892; 53315</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2278; 21282</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14091; 51860</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7159; 54541</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>662; 3909</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31503; 84547</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13945; 53907</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>27265; 83257</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>15221; 72729</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2345; 7138</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1717; 7083</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16648</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33445</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26959</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14617</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6209</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23370</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16753</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17325</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18756</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2839</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>40018</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>50198</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>44284</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>33373</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9048</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6205; 37197</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11651; 95322</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13553; 51378</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4398; 32182</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1278; 5937</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3442; 10466</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10599; 41336</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6624; 33070</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6152; 42549</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7839; 36270</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>454; 2627</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1435; 5183</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21171; 68970</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>28644; 122705</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26322; 77363</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17729; 56427</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2137; 7302</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5976; 13486</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77974</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46496</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50376</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36917</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7783</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29780</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25718</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18939</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39019</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4874</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5379</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>107754</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>72215</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>69315</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>75936</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8295</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13162</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49022; 134143</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24420; 97896</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30130; 74898</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20562; 63043</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1885; 5920</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4966; 10957</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16691; 52246</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14096; 44309</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9835; 32998</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24197; 62274</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2927; 6989</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3341; 8084</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>74597; 161114</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>42540; 127295</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>47390; 93338</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>50553; 106549</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5842; 11503</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9634; 17269</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>46329</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>51238</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49235</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55839</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6650</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8856</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72268</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47385</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53041</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>54176</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6450</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>118597</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>98622</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>102275</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>13100</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>15160</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31065; 72123</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>34666; 75110</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32116; 69995</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31414; 111235</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4196; 9388</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6184; 12932</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51299; 98044</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32595; 69032</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36308; 73018</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35665; 77043</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4407; 8817</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4488; 8882</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>91526; 150145</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>74076; 127865</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>76318; 130361</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>77343; 173667</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9897; 16841</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>11912; 19049</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39264</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21867</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30979</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37437</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5718</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7113</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45788</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>40148</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>34111</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48997</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7645</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>85052</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>62015</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>65091</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>86434</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>10424</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14758</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23330; 69986</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12250; 38673</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19502; 47987</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21839; 58576</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3842; 8503</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4921; 9936</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28361; 71232</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25749; 61796</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19709; 53207</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29604; 78069</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3026; 6766</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5564; 10586</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>59026; 125102</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>43477; 85835</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>46521; 89134</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>61954; 119179</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>7833; 13830</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>11441; 18711</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26003</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>50162</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>45778</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>47702</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4403</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>63892</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29208</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17647</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>76875</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8668</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9275</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>89895</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>63425</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>124578</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>13777</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>13679</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11758; 48280</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>30106; 80750</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25907; 73362</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26272; 84931</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3029; 7827</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2497; 6928</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36040; 108975</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15853; 54173</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7453; 40990</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>45266; 116848</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5058; 14365</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6053; 13387</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>58512; 138454</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>53377; 112451</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>42433; 95163</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>81157; 174903</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9454; 19760</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>9650; 18393</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>228574</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>224781</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>228120</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>208690</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>26193</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37226</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>265381</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>167337</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>168131</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>256843</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27820</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>493954</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>392119</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>396251</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>465533</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>54013</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>69494</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>180832; 288021</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>174696; 294961</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>182663; 285186</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>161888; 288792</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21294; 32492</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31052; 44259</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>213181; 327451</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>134794; 209404</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>129721; 207800</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>205766; 318636</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22468; 34615</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>26659; 38291</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>411301; 595452</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>329769; 484252</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>339637; 459685</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>390584; 556602</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>46304; 62342</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>61725; 80372</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
